--- a/Bradesco.xlsx
+++ b/Bradesco.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duda\Documents\cdd\Projeto2-CD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milen\OneDrive\Documentos\2o SEMESTRE\CDD\Projeto2-CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="18" windowWidth="16098" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="416">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1412,7 +1412,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1734,17 +1734,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A284" zoomScale="137" workbookViewId="0">
+    <sheetView topLeftCell="A290" zoomScale="114" workbookViewId="0">
       <selection activeCell="O291" sqref="O291"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="6.3125" customWidth="1"/>
-    <col min="14" max="14" width="12.7890625" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1755,7 +1755,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1867,12 +1867,12 @@
         <v>413</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>41</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>43</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>22</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>48</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>50</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>22</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>51</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>52</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>53</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>54</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>55</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>56</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>57</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>58</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>22</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>22</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>59</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>60</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>61</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>62</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>63</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>64</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>65</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>66</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>67</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>68</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>69</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>70</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>71</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>72</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>73</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>74</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>75</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>22</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>76</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>77</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>78</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>79</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>80</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>81</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>82</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>83</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>84</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>85</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>86</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>87</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>88</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>89</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>90</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>91</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>92</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>93</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>94</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>95</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>96</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>97</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>98</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>99</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>100</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>101</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>22</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>102</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>103</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>22</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>104</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>22</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>105</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>106</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>107</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>108</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>109</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>110</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>111</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>112</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>113</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>114</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>115</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>116</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>117</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>118</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>6</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>22</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>119</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>120</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>121</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>122</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>123</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>124</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>6</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>125</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>126</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>127</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>128</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>129</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>130</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>6</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>131</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>132</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>133</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>134</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>135</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>6</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>136</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>137</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>22</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>138</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>139</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>140</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>141</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>142</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>143</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>144</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>145</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>22</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>6</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>146</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>147</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>148</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>149</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>150</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>151</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>152</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>22</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>153</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>154</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>6</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>155</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>156</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>157</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>158</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>159</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>22</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>160</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>22</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>161</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>162</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>163</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>164</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>165</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>166</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>167</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>168</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>169</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>170</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>171</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>172</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>173</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>174</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>175</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>176</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>177</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>178</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>179</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>180</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>181</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>22</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>182</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>183</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>184</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>185</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>186</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>187</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>188</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>189</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>6</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>190</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>191</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>22</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>192</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>22</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>193</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>194</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>195</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>6</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>98</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>196</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>197</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>198</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>199</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>200</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>201</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>202</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>203</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>22</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>204</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>205</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>206</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>207</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>208</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>209</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>210</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>211</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>212</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>213</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>214</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>215</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>6</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>216</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>22</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>217</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>218</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>219</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>220</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>221</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>6</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>222</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>223</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>224</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>6</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>6</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>22</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>225</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>226</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>227</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>228</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>229</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>230</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>231</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>232</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>233</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>22</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>234</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>235</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>236</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>237</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>238</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>239</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>240</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>241</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>242</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>243</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>244</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>245</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>246</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>247</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>248</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>249</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>250</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>251</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>252</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>253</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>22</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>254</v>
       </c>
@@ -4160,1015 +4160,1617 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A201"/>
+  <dimension ref="A1:O201"/>
   <sheetViews>
-    <sheetView topLeftCell="A199" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="O201" sqref="O201"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O4" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O9" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O11" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O12" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O14" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O15" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O16" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O17" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O18" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O19" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O20" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O21" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O22" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O23" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O24" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O25" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O26" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O27" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O28" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O29" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O30" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O31" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O33" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O34" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O35" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O36" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O37" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O38" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O39" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O40" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O41" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O43" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O44" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O45" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O46" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O47" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O48" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O49" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O50" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O51" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O52" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O53" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O54" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O55" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O56" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O57" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O58" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O59" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O60" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O61" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O62" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O63" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O64" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O65" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O66" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O67" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O68" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O69" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O70" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O71" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O72" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O73" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O74" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O75" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O76" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O77" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O78" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O79" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O80" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O81" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O82" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O83" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O84" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O85" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O86" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O87" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O88" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O89" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O90" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O91" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O92" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O93" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O94" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O95" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O96" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O97" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O98" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O99" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O100" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O101" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O102" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O103" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O104" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O105" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O106" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O107" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O108" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O109" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O110" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O111" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O112" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O113" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O114" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O115" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O116" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O117" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O118" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O119" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O120" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O121" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O122" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O123" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O124" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O125" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O126" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O127" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O128" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O129" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O130" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O131" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O132" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O133" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O134" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O135" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O136" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O137" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O138" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O139" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O140" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O141" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O142" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O143" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O144" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O145" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O146" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O147" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O148" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O149" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O150" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O151" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O152" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O153" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O154" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O155" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O156" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O157" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O158" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O159" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O160" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O161" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O162" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O163" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O164" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O165" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O166" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O167" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O168" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O169" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O170" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O171" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O172" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O173" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O174" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O175" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O176" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O177" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O178" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O179" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O180" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O181" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O182" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O183" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O184" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O185" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O186" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O187" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O188" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O189" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O190" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O191" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O192" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O193" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O194" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O195" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O196" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O197" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O198" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O199" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O200" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>412</v>
+      </c>
+      <c r="O201" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>

--- a/Bradesco.xlsx
+++ b/Bradesco.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="419">
   <si>
     <t>Treinamento</t>
   </si>
@@ -861,9 +861,6 @@
     <t>tentei sacar dinheiro no @bradesco mais de quinze vezes e minha biometria não foi reconhecida. pelo amor de deus, melhorem esse sistema</t>
   </si>
   <si>
-    <t>$bbdc4 - bradesco (bbdc-n1) - ata reuniao do conselho de administracao - 29/08/17 https://t.co/ydzcj6xfsb</t>
-  </si>
-  <si>
     <t>uma youtuber que despreza a tv não tem um contrato há 5 meses (e recusou marca grande, tipo bradesco) e agora tá falindo
 estou rindo muito</t>
   </si>
@@ -1301,6 +1298,18 @@
   </si>
   <si>
     <t>Queremos identificar a opniao dos clientes</t>
+  </si>
+  <si>
+    <t>Tweets</t>
+  </si>
+  <si>
+    <t>$bbdc4+A23:A141 - bradesco (bbdc-n1) - ata reuniao do conselho de administracao - 29/08/17 https://t.co/ydzcj6xfsb</t>
+  </si>
+  <si>
+    <t>Relevancia</t>
+  </si>
+  <si>
+    <t>Respostas</t>
   </si>
 </sst>
 </file>
@@ -1734,8 +1743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O301"/>
   <sheetViews>
-    <sheetView topLeftCell="A290" zoomScale="114" workbookViewId="0">
-      <selection activeCell="O291" sqref="O291"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1748,2408 +1757,3314 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>418</v>
+      </c>
       <c r="E1" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
+      <c r="O1" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
       <c r="O2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
       <c r="O3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
       <c r="O4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
       <c r="O5" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
       <c r="O6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
       <c r="O7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
       <c r="O8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
       <c r="O9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
       <c r="O10" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
       <c r="O11" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
       <c r="O12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
       <c r="O13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
       <c r="O14" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
       <c r="O15" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
       <c r="O17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18">
         <v>17</v>
       </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
       <c r="O18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19">
         <v>18</v>
       </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
       <c r="O19" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20">
         <v>19</v>
       </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
       <c r="O20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21">
         <v>20</v>
       </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
       <c r="O21" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22">
         <v>21</v>
       </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
       <c r="O22" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23">
         <v>22</v>
       </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
       <c r="O23" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24">
         <v>23</v>
       </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
       <c r="O24" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25">
         <v>24</v>
       </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
       <c r="O25" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26">
         <v>25</v>
       </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
       <c r="O26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>6</v>
       </c>
       <c r="O27" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
         <v>26</v>
       </c>
       <c r="O28" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
         <v>27</v>
       </c>
       <c r="O29" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
         <v>28</v>
       </c>
       <c r="O30" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
         <v>29</v>
       </c>
       <c r="O31" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
         <v>30</v>
       </c>
       <c r="O32" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
         <v>31</v>
       </c>
       <c r="O33" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
         <v>32</v>
       </c>
       <c r="O34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
         <v>33</v>
       </c>
       <c r="O35" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
         <v>6</v>
       </c>
       <c r="O36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
         <v>34</v>
       </c>
       <c r="O37" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
         <v>35</v>
       </c>
       <c r="O38" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
         <v>6</v>
       </c>
       <c r="O39" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
         <v>36</v>
       </c>
       <c r="O40" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
         <v>37</v>
       </c>
       <c r="O41" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
         <v>22</v>
       </c>
       <c r="O42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
         <v>38</v>
       </c>
       <c r="O43" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
         <v>39</v>
       </c>
       <c r="O44" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
         <v>40</v>
       </c>
       <c r="O45" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
         <v>22</v>
       </c>
       <c r="O46" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
         <v>41</v>
       </c>
       <c r="O47" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
         <v>22</v>
       </c>
       <c r="O48" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
         <v>42</v>
       </c>
       <c r="O49" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
         <v>43</v>
       </c>
       <c r="O50" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
         <v>44</v>
       </c>
       <c r="O51" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
         <v>45</v>
       </c>
       <c r="O52" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
         <v>22</v>
       </c>
       <c r="O53" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
         <v>46</v>
       </c>
       <c r="O54" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
         <v>47</v>
       </c>
       <c r="O55" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
         <v>48</v>
       </c>
       <c r="O56" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
         <v>49</v>
       </c>
       <c r="O57" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
         <v>22</v>
       </c>
       <c r="O58" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
         <v>50</v>
       </c>
       <c r="O59" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
         <v>22</v>
       </c>
       <c r="O60" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
         <v>51</v>
       </c>
       <c r="O61" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
         <v>52</v>
       </c>
       <c r="O62" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
         <v>53</v>
       </c>
       <c r="O63" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
         <v>54</v>
       </c>
       <c r="O64" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
         <v>55</v>
       </c>
       <c r="O65" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
         <v>6</v>
       </c>
       <c r="O66" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
         <v>56</v>
       </c>
       <c r="O67" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
         <v>57</v>
       </c>
       <c r="O68" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
         <v>6</v>
       </c>
       <c r="O69" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
         <v>58</v>
       </c>
       <c r="O70" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
         <v>22</v>
       </c>
       <c r="O71" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
         <v>22</v>
       </c>
       <c r="O72" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
         <v>59</v>
       </c>
       <c r="O73" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
         <v>60</v>
       </c>
       <c r="O74" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
         <v>61</v>
       </c>
       <c r="O75" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
         <v>62</v>
       </c>
       <c r="O76" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
         <v>63</v>
       </c>
       <c r="O77" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
         <v>64</v>
       </c>
       <c r="O78" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
         <v>65</v>
       </c>
       <c r="O79" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
         <v>66</v>
       </c>
       <c r="O80" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
         <v>67</v>
       </c>
       <c r="O81" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
         <v>68</v>
       </c>
       <c r="O82" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
         <v>69</v>
       </c>
       <c r="O83" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
         <v>70</v>
       </c>
       <c r="O84" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
         <v>71</v>
       </c>
       <c r="O85" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
         <v>72</v>
       </c>
       <c r="O86" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
         <v>73</v>
       </c>
       <c r="O87" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
         <v>74</v>
       </c>
       <c r="O88" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
         <v>75</v>
       </c>
       <c r="O89" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
         <v>22</v>
       </c>
       <c r="O90" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
         <v>76</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
         <v>77</v>
       </c>
       <c r="O92" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
         <v>6</v>
       </c>
       <c r="O93" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
         <v>78</v>
       </c>
       <c r="O94" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
         <v>79</v>
       </c>
       <c r="O95" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
         <v>6</v>
       </c>
       <c r="O96" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
         <v>80</v>
       </c>
       <c r="O97" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
         <v>81</v>
       </c>
       <c r="O98" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
         <v>82</v>
       </c>
       <c r="O99" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
         <v>83</v>
       </c>
       <c r="O100" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
         <v>84</v>
       </c>
       <c r="O101" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
         <v>85</v>
       </c>
       <c r="O102" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
         <v>86</v>
       </c>
       <c r="O103" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
         <v>87</v>
       </c>
       <c r="O104" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
         <v>88</v>
       </c>
       <c r="O105" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
         <v>89</v>
       </c>
       <c r="O106" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
         <v>90</v>
       </c>
       <c r="O107" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
         <v>91</v>
       </c>
       <c r="O108" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
         <v>92</v>
       </c>
       <c r="O109" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
         <v>93</v>
       </c>
       <c r="O110" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
         <v>94</v>
       </c>
       <c r="O111" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
         <v>95</v>
       </c>
       <c r="O112" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
         <v>96</v>
       </c>
       <c r="O113" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
         <v>97</v>
       </c>
       <c r="O114" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
         <v>98</v>
       </c>
       <c r="O115" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
         <v>99</v>
       </c>
       <c r="O116" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
         <v>100</v>
       </c>
       <c r="O117" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
         <v>101</v>
       </c>
       <c r="O118" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
         <v>22</v>
       </c>
       <c r="O119" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
         <v>102</v>
       </c>
       <c r="O120" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
         <v>103</v>
       </c>
       <c r="O121" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
         <v>22</v>
       </c>
       <c r="O122" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
         <v>104</v>
       </c>
       <c r="O123" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
         <v>22</v>
       </c>
       <c r="O124" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
         <v>105</v>
       </c>
       <c r="O125" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
         <v>106</v>
       </c>
       <c r="O126" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
         <v>107</v>
       </c>
       <c r="O127" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
         <v>108</v>
       </c>
       <c r="O128" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
         <v>109</v>
       </c>
       <c r="O129" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
         <v>110</v>
       </c>
       <c r="O130" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
         <v>111</v>
       </c>
       <c r="O131" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
         <v>112</v>
       </c>
       <c r="O132" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
         <v>113</v>
       </c>
       <c r="O133" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
         <v>114</v>
       </c>
       <c r="O134" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
         <v>115</v>
       </c>
       <c r="O135" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
         <v>116</v>
       </c>
       <c r="O136" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
         <v>117</v>
       </c>
       <c r="O137" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
         <v>118</v>
       </c>
       <c r="O138" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
         <v>6</v>
       </c>
       <c r="O139" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
         <v>22</v>
       </c>
       <c r="O140" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
         <v>119</v>
       </c>
       <c r="O141" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
         <v>120</v>
       </c>
       <c r="O142" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
         <v>121</v>
       </c>
       <c r="O143" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
         <v>122</v>
       </c>
       <c r="O144" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
         <v>123</v>
       </c>
       <c r="O145" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
         <v>124</v>
       </c>
       <c r="O146" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
         <v>6</v>
       </c>
       <c r="O147" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
         <v>125</v>
       </c>
       <c r="O148" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
         <v>126</v>
       </c>
       <c r="O149" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
         <v>127</v>
       </c>
       <c r="O150" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
         <v>128</v>
       </c>
       <c r="O151" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
         <v>129</v>
       </c>
       <c r="O152" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
         <v>130</v>
       </c>
       <c r="O153" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
         <v>6</v>
       </c>
       <c r="O154" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
         <v>131</v>
       </c>
       <c r="O155" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
         <v>132</v>
       </c>
       <c r="O156" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
         <v>133</v>
       </c>
       <c r="O157" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
         <v>134</v>
       </c>
       <c r="O158" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
         <v>135</v>
       </c>
       <c r="O159" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
         <v>6</v>
       </c>
       <c r="O160" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
         <v>136</v>
       </c>
       <c r="O161" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
         <v>137</v>
       </c>
       <c r="O162" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
         <v>22</v>
       </c>
       <c r="O163" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
         <v>138</v>
       </c>
       <c r="O164" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
         <v>139</v>
       </c>
       <c r="O165" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
         <v>140</v>
       </c>
       <c r="O166" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
         <v>141</v>
       </c>
       <c r="O167" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
         <v>142</v>
       </c>
       <c r="O168" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
         <v>143</v>
       </c>
       <c r="O169" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
         <v>144</v>
       </c>
       <c r="O170" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
         <v>145</v>
       </c>
       <c r="O171" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
         <v>22</v>
       </c>
       <c r="O172" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
         <v>6</v>
       </c>
       <c r="O173" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
         <v>146</v>
       </c>
       <c r="O174" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
         <v>147</v>
       </c>
       <c r="O175" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
         <v>148</v>
       </c>
       <c r="O176" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
         <v>149</v>
       </c>
       <c r="O177" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
         <v>150</v>
       </c>
       <c r="O178" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
         <v>151</v>
       </c>
       <c r="O179" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
         <v>152</v>
       </c>
       <c r="O180" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
         <v>22</v>
       </c>
       <c r="O181" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
         <v>153</v>
       </c>
       <c r="O182" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
         <v>154</v>
       </c>
       <c r="O183" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
         <v>6</v>
       </c>
       <c r="O184" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
         <v>155</v>
       </c>
       <c r="O185" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
         <v>156</v>
       </c>
       <c r="O186" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
         <v>157</v>
       </c>
       <c r="O187" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
         <v>158</v>
       </c>
       <c r="O188" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
         <v>159</v>
       </c>
       <c r="O189" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
         <v>22</v>
       </c>
       <c r="O190" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
         <v>160</v>
       </c>
       <c r="O191" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
         <v>22</v>
       </c>
       <c r="O192" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
         <v>161</v>
       </c>
       <c r="O193" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
         <v>162</v>
       </c>
       <c r="O194" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
         <v>163</v>
       </c>
       <c r="O195" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
         <v>164</v>
       </c>
       <c r="O196" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
         <v>165</v>
       </c>
       <c r="O197" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
         <v>166</v>
       </c>
       <c r="O198" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
         <v>167</v>
       </c>
       <c r="O199" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
         <v>168</v>
       </c>
       <c r="O200" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
         <v>169</v>
       </c>
       <c r="O201" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
         <v>170</v>
       </c>
       <c r="O202" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
         <v>171</v>
       </c>
       <c r="O203" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
         <v>172</v>
       </c>
       <c r="O204" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
         <v>173</v>
       </c>
       <c r="O205" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
         <v>174</v>
       </c>
       <c r="O206" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
         <v>175</v>
       </c>
       <c r="O207" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
         <v>176</v>
       </c>
       <c r="O208" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
         <v>177</v>
       </c>
       <c r="O209" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
         <v>178</v>
       </c>
       <c r="O210" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
         <v>179</v>
       </c>
       <c r="O211" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
         <v>180</v>
       </c>
       <c r="O212" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
         <v>181</v>
       </c>
       <c r="O213" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
         <v>22</v>
       </c>
       <c r="O214" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
         <v>182</v>
       </c>
       <c r="O215" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
         <v>183</v>
       </c>
       <c r="O216" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
         <v>184</v>
       </c>
       <c r="O217" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
         <v>185</v>
       </c>
       <c r="O218" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
         <v>186</v>
       </c>
       <c r="O219" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
         <v>187</v>
       </c>
       <c r="O220" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
         <v>188</v>
       </c>
       <c r="O221" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
         <v>189</v>
       </c>
       <c r="O222" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
         <v>6</v>
       </c>
       <c r="O223" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
         <v>190</v>
       </c>
       <c r="O224" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
         <v>191</v>
       </c>
       <c r="O225" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
         <v>22</v>
       </c>
       <c r="O226" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
         <v>192</v>
       </c>
       <c r="O227" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
         <v>22</v>
       </c>
       <c r="O228" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
         <v>193</v>
       </c>
       <c r="O229" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
         <v>194</v>
       </c>
       <c r="O230" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
         <v>195</v>
       </c>
       <c r="O231" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
         <v>6</v>
       </c>
       <c r="O232" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
         <v>98</v>
       </c>
       <c r="O233" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
         <v>196</v>
       </c>
       <c r="O234" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
         <v>197</v>
       </c>
       <c r="O235" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
         <v>198</v>
       </c>
       <c r="O236" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
         <v>199</v>
       </c>
       <c r="O237" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
         <v>200</v>
       </c>
       <c r="O238" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
         <v>201</v>
       </c>
       <c r="O239" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
         <v>202</v>
       </c>
       <c r="O240" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
         <v>203</v>
       </c>
       <c r="O241" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
         <v>22</v>
       </c>
       <c r="O242" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
         <v>204</v>
       </c>
       <c r="O243" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
         <v>205</v>
       </c>
       <c r="O244" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
         <v>206</v>
       </c>
       <c r="O245" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
         <v>207</v>
       </c>
       <c r="O246" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
         <v>208</v>
       </c>
       <c r="O247" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
         <v>209</v>
       </c>
       <c r="O248" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
         <v>210</v>
       </c>
       <c r="O249" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
         <v>211</v>
       </c>
       <c r="O250" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
         <v>212</v>
       </c>
       <c r="O251" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
         <v>213</v>
       </c>
       <c r="O252" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
         <v>214</v>
       </c>
       <c r="O253" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
         <v>215</v>
       </c>
       <c r="O254" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
         <v>6</v>
       </c>
       <c r="O255" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
         <v>216</v>
       </c>
       <c r="O256" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
         <v>22</v>
       </c>
       <c r="O257" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
         <v>217</v>
       </c>
       <c r="O258" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
         <v>218</v>
       </c>
       <c r="O259" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
         <v>219</v>
       </c>
       <c r="O260" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
         <v>220</v>
       </c>
       <c r="O261" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="262" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
         <v>221</v>
       </c>
       <c r="O262" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="263" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
         <v>6</v>
       </c>
       <c r="O263" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="264" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
         <v>222</v>
       </c>
       <c r="O264" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
         <v>223</v>
       </c>
       <c r="O265" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
         <v>224</v>
       </c>
       <c r="O266" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="267" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
         <v>6</v>
       </c>
       <c r="O267" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
         <v>6</v>
       </c>
       <c r="O268" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
         <v>22</v>
       </c>
       <c r="O269" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
         <v>225</v>
       </c>
       <c r="O270" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
         <v>226</v>
       </c>
       <c r="O271" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="272" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
         <v>227</v>
       </c>
       <c r="O272" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
         <v>228</v>
       </c>
       <c r="O273" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
         <v>229</v>
       </c>
       <c r="O274" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
         <v>230</v>
       </c>
       <c r="O275" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
         <v>231</v>
       </c>
       <c r="O276" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
         <v>232</v>
       </c>
       <c r="O277" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
         <v>233</v>
       </c>
       <c r="O278" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
         <v>22</v>
       </c>
       <c r="O279" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280" t="s">
         <v>234</v>
       </c>
       <c r="O280" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281" t="s">
         <v>235</v>
       </c>
       <c r="O281" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282" t="s">
         <v>236</v>
       </c>
       <c r="O282" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283" t="s">
         <v>237</v>
       </c>
       <c r="O283" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284" t="s">
         <v>238</v>
       </c>
       <c r="O284" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285" t="s">
         <v>239</v>
       </c>
       <c r="O285" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286" t="s">
         <v>240</v>
       </c>
       <c r="O286" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287" t="s">
         <v>241</v>
       </c>
       <c r="O287" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288" t="s">
         <v>242</v>
       </c>
       <c r="O288" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="289" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289" t="s">
         <v>243</v>
       </c>
       <c r="O289" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290" t="s">
         <v>244</v>
       </c>
       <c r="O290" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291" t="s">
         <v>245</v>
       </c>
       <c r="O291" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
         <v>246</v>
       </c>
       <c r="O292" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="293" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293" t="s">
         <v>247</v>
       </c>
       <c r="O293" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="294" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294" t="s">
         <v>248</v>
       </c>
       <c r="O294" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295" t="s">
         <v>249</v>
       </c>
       <c r="O295" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="296" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296" t="s">
         <v>250</v>
       </c>
       <c r="O296" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="297" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297" t="s">
         <v>251</v>
       </c>
       <c r="O297" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="298" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298" t="s">
         <v>252</v>
       </c>
       <c r="O298" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="299" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299" t="s">
         <v>253</v>
       </c>
       <c r="O299" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300" t="s">
         <v>22</v>
       </c>
       <c r="O300" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="301" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301" t="s">
         <v>254</v>
       </c>
       <c r="O301" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -4162,8 +5077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="O201" sqref="O201"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4172,1605 +5087,2211 @@
       <c r="A1" s="1" t="s">
         <v>255</v>
       </c>
+      <c r="B1" t="s">
+        <v>415</v>
+      </c>
+      <c r="O1" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>256</v>
       </c>
       <c r="O2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>257</v>
       </c>
       <c r="O3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>258</v>
       </c>
       <c r="O4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>259</v>
       </c>
       <c r="O5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="O6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>260</v>
       </c>
       <c r="O7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>261</v>
       </c>
       <c r="O8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>262</v>
       </c>
       <c r="O9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
       </c>
       <c r="O10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>263</v>
       </c>
       <c r="O11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>264</v>
       </c>
       <c r="O12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>265</v>
       </c>
       <c r="O13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>266</v>
       </c>
       <c r="O14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>267</v>
       </c>
       <c r="O15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>22</v>
       </c>
       <c r="O16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>268</v>
       </c>
       <c r="O17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>22</v>
       </c>
       <c r="O18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>269</v>
       </c>
       <c r="O19" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>270</v>
       </c>
       <c r="O20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>271</v>
       </c>
       <c r="O21" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>272</v>
       </c>
       <c r="O22" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>416</v>
+      </c>
+      <c r="O23" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>273</v>
       </c>
-      <c r="O23" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="O24" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>274</v>
       </c>
-      <c r="O24" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="O25" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>275</v>
       </c>
-      <c r="O25" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="O26" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="O27" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
         <v>276</v>
       </c>
-      <c r="O26" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="O28" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>277</v>
+      </c>
+      <c r="O29" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>278</v>
+      </c>
+      <c r="O30" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="O27" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>277</v>
-      </c>
-      <c r="O28" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>278</v>
-      </c>
-      <c r="O29" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="O31" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
         <v>279</v>
       </c>
-      <c r="O30" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="O32" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="O33" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>280</v>
+      </c>
+      <c r="O34" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="O35" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>281</v>
+      </c>
+      <c r="O36" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>282</v>
+      </c>
+      <c r="O37" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="O38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>283</v>
+      </c>
+      <c r="O39" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>284</v>
+      </c>
+      <c r="O40" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>285</v>
+      </c>
+      <c r="O41" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="O42" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>286</v>
+      </c>
+      <c r="O43" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
         <v>6</v>
       </c>
-      <c r="O31" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>280</v>
-      </c>
-      <c r="O32" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="O44" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="O45" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="O46" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="O47" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>287</v>
+      </c>
+      <c r="O48" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>288</v>
+      </c>
+      <c r="O49" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>289</v>
+      </c>
+      <c r="O50" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
         <v>22</v>
       </c>
-      <c r="O33" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>281</v>
-      </c>
-      <c r="O34" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="O51" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>290</v>
+      </c>
+      <c r="O52" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>291</v>
+      </c>
+      <c r="O53" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>292</v>
+      </c>
+      <c r="O54" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>293</v>
+      </c>
+      <c r="O55" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
         <v>22</v>
       </c>
-      <c r="O35" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>282</v>
-      </c>
-      <c r="O36" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>283</v>
-      </c>
-      <c r="O37" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="O56" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>294</v>
+      </c>
+      <c r="O57" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>295</v>
+      </c>
+      <c r="O58" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>296</v>
+      </c>
+      <c r="O59" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>297</v>
+      </c>
+      <c r="O60" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>298</v>
+      </c>
+      <c r="O61" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="O62" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
         <v>22</v>
       </c>
-      <c r="O38" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>284</v>
-      </c>
-      <c r="O39" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>285</v>
-      </c>
-      <c r="O40" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>286</v>
-      </c>
-      <c r="O41" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="O63" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>299</v>
+      </c>
+      <c r="O64" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>300</v>
+      </c>
+      <c r="O65" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
         <v>22</v>
       </c>
-      <c r="O42" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>287</v>
-      </c>
-      <c r="O43" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="O66" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>301</v>
+      </c>
+      <c r="O67" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>302</v>
+      </c>
+      <c r="O68" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>98</v>
+      </c>
+      <c r="O69" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>303</v>
+      </c>
+      <c r="O70" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>304</v>
+      </c>
+      <c r="O71" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>305</v>
+      </c>
+      <c r="O72" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>306</v>
+      </c>
+      <c r="O73" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>307</v>
+      </c>
+      <c r="O74" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>308</v>
+      </c>
+      <c r="O75" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>309</v>
+      </c>
+      <c r="O76" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>310</v>
+      </c>
+      <c r="O77" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>301</v>
+      </c>
+      <c r="O78" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>311</v>
+      </c>
+      <c r="O79" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>312</v>
+      </c>
+      <c r="O80" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>313</v>
+      </c>
+      <c r="O81" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>314</v>
+      </c>
+      <c r="O82" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
         <v>6</v>
       </c>
-      <c r="O44" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="O83" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>315</v>
+      </c>
+      <c r="O84" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>316</v>
+      </c>
+      <c r="O85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
         <v>6</v>
       </c>
-      <c r="O45" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="O86" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
         <v>6</v>
       </c>
-      <c r="O46" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="O87" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>317</v>
+      </c>
+      <c r="O88" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>318</v>
+      </c>
+      <c r="O89" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>319</v>
+      </c>
+      <c r="O90" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>320</v>
+      </c>
+      <c r="O91" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>321</v>
+      </c>
+      <c r="O92" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>322</v>
+      </c>
+      <c r="O93" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>22</v>
+      </c>
+      <c r="O94" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>323</v>
+      </c>
+      <c r="O95" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>324</v>
+      </c>
+      <c r="O96" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>325</v>
+      </c>
+      <c r="O97" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>326</v>
+      </c>
+      <c r="O98" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>327</v>
+      </c>
+      <c r="O99" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>328</v>
+      </c>
+      <c r="O100" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>329</v>
+      </c>
+      <c r="O101" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>330</v>
+      </c>
+      <c r="O102" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>331</v>
+      </c>
+      <c r="O103" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>332</v>
+      </c>
+      <c r="O104" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>333</v>
+      </c>
+      <c r="O105" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>334</v>
+      </c>
+      <c r="O106" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>335</v>
+      </c>
+      <c r="O107" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>336</v>
+      </c>
+      <c r="O108" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>337</v>
+      </c>
+      <c r="O109" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>338</v>
+      </c>
+      <c r="O110" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>339</v>
+      </c>
+      <c r="O111" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>340</v>
+      </c>
+      <c r="O112" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>341</v>
+      </c>
+      <c r="O113" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>342</v>
+      </c>
+      <c r="O114" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>343</v>
+      </c>
+      <c r="O115" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>344</v>
+      </c>
+      <c r="O116" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>345</v>
+      </c>
+      <c r="O117" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>346</v>
+      </c>
+      <c r="O118" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>347</v>
+      </c>
+      <c r="O119" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>348</v>
+      </c>
+      <c r="O120" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>349</v>
+      </c>
+      <c r="O121" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>350</v>
+      </c>
+      <c r="O122" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
         <v>6</v>
       </c>
-      <c r="O47" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>288</v>
-      </c>
-      <c r="O48" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>289</v>
-      </c>
-      <c r="O49" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>290</v>
-      </c>
-      <c r="O50" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="O123" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>351</v>
+      </c>
+      <c r="O124" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>352</v>
+      </c>
+      <c r="O125" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>353</v>
+      </c>
+      <c r="O126" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
         <v>22</v>
       </c>
-      <c r="O51" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>291</v>
-      </c>
-      <c r="O52" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>292</v>
-      </c>
-      <c r="O53" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>293</v>
-      </c>
-      <c r="O54" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>294</v>
-      </c>
-      <c r="O55" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="O127" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>354</v>
+      </c>
+      <c r="O128" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>355</v>
+      </c>
+      <c r="O129" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
         <v>22</v>
       </c>
-      <c r="O56" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>295</v>
-      </c>
-      <c r="O57" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>296</v>
-      </c>
-      <c r="O58" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>297</v>
-      </c>
-      <c r="O59" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>298</v>
-      </c>
-      <c r="O60" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>299</v>
-      </c>
-      <c r="O61" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="O130" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>356</v>
+      </c>
+      <c r="O131" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>22</v>
+      </c>
+      <c r="O132" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>357</v>
+      </c>
+      <c r="O133" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>358</v>
+      </c>
+      <c r="O134" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>359</v>
+      </c>
+      <c r="O135" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>301</v>
+      </c>
+      <c r="O136" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>360</v>
+      </c>
+      <c r="O137" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
         <v>6</v>
       </c>
-      <c r="O62" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="O138" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>361</v>
+      </c>
+      <c r="O139" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>6</v>
+      </c>
+      <c r="O140" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>362</v>
+      </c>
+      <c r="O141" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>363</v>
+      </c>
+      <c r="O142" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>364</v>
+      </c>
+      <c r="O143" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>365</v>
+      </c>
+      <c r="O144" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>366</v>
+      </c>
+      <c r="O145" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>367</v>
+      </c>
+      <c r="O146" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>368</v>
+      </c>
+      <c r="O147" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>369</v>
+      </c>
+      <c r="O148" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>370</v>
+      </c>
+      <c r="O149" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>371</v>
+      </c>
+      <c r="O150" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>372</v>
+      </c>
+      <c r="O151" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>373</v>
+      </c>
+      <c r="O152" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>374</v>
+      </c>
+      <c r="O153" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>375</v>
+      </c>
+      <c r="O154" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>376</v>
+      </c>
+      <c r="O155" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>377</v>
+      </c>
+      <c r="O156" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
         <v>22</v>
       </c>
-      <c r="O63" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>300</v>
-      </c>
-      <c r="O64" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>301</v>
-      </c>
-      <c r="O65" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="O157" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>378</v>
+      </c>
+      <c r="O158" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>6</v>
+      </c>
+      <c r="O159" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>379</v>
+      </c>
+      <c r="O160" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>380</v>
+      </c>
+      <c r="O161" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
         <v>22</v>
       </c>
-      <c r="O66" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>302</v>
-      </c>
-      <c r="O67" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>303</v>
-      </c>
-      <c r="O68" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>98</v>
-      </c>
-      <c r="O69" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>304</v>
-      </c>
-      <c r="O70" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>305</v>
-      </c>
-      <c r="O71" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>306</v>
-      </c>
-      <c r="O72" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>307</v>
-      </c>
-      <c r="O73" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>308</v>
-      </c>
-      <c r="O74" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>309</v>
-      </c>
-      <c r="O75" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>310</v>
-      </c>
-      <c r="O76" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>311</v>
-      </c>
-      <c r="O77" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>302</v>
-      </c>
-      <c r="O78" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>312</v>
-      </c>
-      <c r="O79" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>313</v>
-      </c>
-      <c r="O80" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>314</v>
-      </c>
-      <c r="O81" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>315</v>
-      </c>
-      <c r="O82" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="O162" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>22</v>
+      </c>
+      <c r="O163" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>381</v>
+      </c>
+      <c r="O164" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>22</v>
+      </c>
+      <c r="O165" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>382</v>
+      </c>
+      <c r="O166" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>383</v>
+      </c>
+      <c r="O167" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>384</v>
+      </c>
+      <c r="O168" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>22</v>
+      </c>
+      <c r="O169" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>385</v>
+      </c>
+      <c r="O170" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>386</v>
+      </c>
+      <c r="O171" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>387</v>
+      </c>
+      <c r="O172" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>388</v>
+      </c>
+      <c r="O173" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>389</v>
+      </c>
+      <c r="O174" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>22</v>
+      </c>
+      <c r="O175" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>390</v>
+      </c>
+      <c r="O176" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>391</v>
+      </c>
+      <c r="O177" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>392</v>
+      </c>
+      <c r="O178" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>393</v>
+      </c>
+      <c r="O179" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>394</v>
+      </c>
+      <c r="O180" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>395</v>
+      </c>
+      <c r="O181" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
         <v>6</v>
       </c>
-      <c r="O83" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>316</v>
-      </c>
-      <c r="O84" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>317</v>
-      </c>
-      <c r="O85" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="O182" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>396</v>
+      </c>
+      <c r="O183" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>397</v>
+      </c>
+      <c r="O184" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>22</v>
+      </c>
+      <c r="O185" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>398</v>
+      </c>
+      <c r="O186" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>399</v>
+      </c>
+      <c r="O187" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>400</v>
+      </c>
+      <c r="O188" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>401</v>
+      </c>
+      <c r="O189" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>402</v>
+      </c>
+      <c r="O190" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>403</v>
+      </c>
+      <c r="O191" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>404</v>
+      </c>
+      <c r="O192" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>405</v>
+      </c>
+      <c r="O193" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
         <v>6</v>
       </c>
-      <c r="O86" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>6</v>
-      </c>
-      <c r="O87" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>318</v>
-      </c>
-      <c r="O88" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>319</v>
-      </c>
-      <c r="O89" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>320</v>
-      </c>
-      <c r="O90" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>321</v>
-      </c>
-      <c r="O91" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>322</v>
-      </c>
-      <c r="O92" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>323</v>
-      </c>
-      <c r="O93" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="O194" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>406</v>
+      </c>
+      <c r="O195" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>407</v>
+      </c>
+      <c r="O196" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
         <v>22</v>
       </c>
-      <c r="O94" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>324</v>
-      </c>
-      <c r="O95" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>325</v>
-      </c>
-      <c r="O96" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>326</v>
-      </c>
-      <c r="O97" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>327</v>
-      </c>
-      <c r="O98" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>328</v>
-      </c>
-      <c r="O99" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>329</v>
-      </c>
-      <c r="O100" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>330</v>
-      </c>
-      <c r="O101" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>331</v>
-      </c>
-      <c r="O102" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>332</v>
-      </c>
-      <c r="O103" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>333</v>
-      </c>
-      <c r="O104" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>334</v>
-      </c>
-      <c r="O105" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>335</v>
-      </c>
-      <c r="O106" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>336</v>
-      </c>
-      <c r="O107" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>337</v>
-      </c>
-      <c r="O108" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>338</v>
-      </c>
-      <c r="O109" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>339</v>
-      </c>
-      <c r="O110" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>340</v>
-      </c>
-      <c r="O111" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>341</v>
-      </c>
-      <c r="O112" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>342</v>
-      </c>
-      <c r="O113" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>343</v>
-      </c>
-      <c r="O114" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>344</v>
-      </c>
-      <c r="O115" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>345</v>
-      </c>
-      <c r="O116" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>346</v>
-      </c>
-      <c r="O117" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>347</v>
-      </c>
-      <c r="O118" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>348</v>
-      </c>
-      <c r="O119" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>349</v>
-      </c>
-      <c r="O120" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>350</v>
-      </c>
-      <c r="O121" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>351</v>
-      </c>
-      <c r="O122" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>6</v>
-      </c>
-      <c r="O123" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>352</v>
-      </c>
-      <c r="O124" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>353</v>
-      </c>
-      <c r="O125" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>354</v>
-      </c>
-      <c r="O126" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>22</v>
-      </c>
-      <c r="O127" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>355</v>
-      </c>
-      <c r="O128" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>356</v>
-      </c>
-      <c r="O129" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>22</v>
-      </c>
-      <c r="O130" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>357</v>
-      </c>
-      <c r="O131" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>22</v>
-      </c>
-      <c r="O132" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>358</v>
-      </c>
-      <c r="O133" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>359</v>
-      </c>
-      <c r="O134" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>360</v>
-      </c>
-      <c r="O135" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>302</v>
-      </c>
-      <c r="O136" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>361</v>
-      </c>
-      <c r="O137" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>6</v>
-      </c>
-      <c r="O138" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>362</v>
-      </c>
-      <c r="O139" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>6</v>
-      </c>
-      <c r="O140" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>363</v>
-      </c>
-      <c r="O141" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>364</v>
-      </c>
-      <c r="O142" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>365</v>
-      </c>
-      <c r="O143" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>366</v>
-      </c>
-      <c r="O144" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>367</v>
-      </c>
-      <c r="O145" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>368</v>
-      </c>
-      <c r="O146" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>369</v>
-      </c>
-      <c r="O147" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>370</v>
-      </c>
-      <c r="O148" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>371</v>
-      </c>
-      <c r="O149" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>372</v>
-      </c>
-      <c r="O150" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>373</v>
-      </c>
-      <c r="O151" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>374</v>
-      </c>
-      <c r="O152" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>375</v>
-      </c>
-      <c r="O153" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>376</v>
-      </c>
-      <c r="O154" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>377</v>
-      </c>
-      <c r="O155" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>378</v>
-      </c>
-      <c r="O156" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>22</v>
-      </c>
-      <c r="O157" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>379</v>
-      </c>
-      <c r="O158" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>6</v>
-      </c>
-      <c r="O159" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>380</v>
-      </c>
-      <c r="O160" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>381</v>
-      </c>
-      <c r="O161" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>22</v>
-      </c>
-      <c r="O162" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>22</v>
-      </c>
-      <c r="O163" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>382</v>
-      </c>
-      <c r="O164" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>22</v>
-      </c>
-      <c r="O165" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>383</v>
-      </c>
-      <c r="O166" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>384</v>
-      </c>
-      <c r="O167" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>385</v>
-      </c>
-      <c r="O168" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>22</v>
-      </c>
-      <c r="O169" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>386</v>
-      </c>
-      <c r="O170" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>387</v>
-      </c>
-      <c r="O171" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>388</v>
-      </c>
-      <c r="O172" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>389</v>
-      </c>
-      <c r="O173" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>390</v>
-      </c>
-      <c r="O174" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>22</v>
-      </c>
-      <c r="O175" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>391</v>
-      </c>
-      <c r="O176" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>392</v>
-      </c>
-      <c r="O177" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>393</v>
-      </c>
-      <c r="O178" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>394</v>
-      </c>
-      <c r="O179" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>395</v>
-      </c>
-      <c r="O180" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>396</v>
-      </c>
-      <c r="O181" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>6</v>
-      </c>
-      <c r="O182" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>397</v>
-      </c>
-      <c r="O183" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>398</v>
-      </c>
-      <c r="O184" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>22</v>
-      </c>
-      <c r="O185" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>399</v>
-      </c>
-      <c r="O186" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>400</v>
-      </c>
-      <c r="O187" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>401</v>
-      </c>
-      <c r="O188" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>402</v>
-      </c>
-      <c r="O189" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>403</v>
-      </c>
-      <c r="O190" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>404</v>
-      </c>
-      <c r="O191" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>405</v>
-      </c>
-      <c r="O192" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>406</v>
-      </c>
-      <c r="O193" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>6</v>
-      </c>
-      <c r="O194" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>407</v>
-      </c>
-      <c r="O195" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="O197" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
         <v>408</v>
       </c>
-      <c r="O196" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>22</v>
-      </c>
-      <c r="O197" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="O198" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
         <v>409</v>
       </c>
-      <c r="O198" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="O199" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
         <v>410</v>
       </c>
-      <c r="O199" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="O200" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
         <v>411</v>
       </c>
-      <c r="O200" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>412</v>
-      </c>
       <c r="O201" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>

--- a/Bradesco.xlsx
+++ b/Bradesco.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="419">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1743,8 +1743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="D14" zoomScale="114" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1930,6 +1930,9 @@
       </c>
       <c r="B16" t="s">
         <v>15</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">

--- a/Bradesco.xlsx
+++ b/Bradesco.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
@@ -1297,9 +1298,6 @@
     <t>r</t>
   </si>
   <si>
-    <t>Queremos identificar a opniao dos clientes</t>
-  </si>
-  <si>
     <t>Tweets</t>
   </si>
   <si>
@@ -1310,13 +1308,17 @@
   </si>
   <si>
     <t>Respostas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1345,8 +1347,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1356,12 +1365,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1393,16 +1396,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1741,3332 +1747,3336 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O301"/>
+  <dimension ref="A1:L301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D14" zoomScale="114" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView zoomScale="114" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="138.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" customWidth="1"/>
     <col min="14" max="14" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>418</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="O1" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="O2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>412</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="O3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="O4" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C5" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="O6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="O7" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="O8" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="O9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="O11" s="6" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C11" s="5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="O12" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="O13" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="O14" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="O15" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="O16" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C16" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="O17" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="O18" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="O19" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="O20" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="O21" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C22" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="O23" s="5" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C23" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="O24" s="5" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C24" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="O25" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="O26" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
-      <c r="O27" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
       </c>
-      <c r="O28" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
       </c>
-      <c r="O29" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
       </c>
-      <c r="O30" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
       </c>
-      <c r="O31" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
       </c>
-      <c r="O32" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
       </c>
-      <c r="O33" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
       </c>
-      <c r="O34" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
       </c>
-      <c r="O35" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
       </c>
-      <c r="O36" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>34</v>
       </c>
-      <c r="O37" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>35</v>
       </c>
-      <c r="O38" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
       </c>
-      <c r="O39" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>36</v>
       </c>
-      <c r="O40" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>37</v>
       </c>
-      <c r="O41" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>22</v>
       </c>
-      <c r="O42" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>38</v>
       </c>
-      <c r="O43" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>39</v>
       </c>
-      <c r="O44" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>40</v>
       </c>
-      <c r="O45" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>22</v>
       </c>
-      <c r="O46" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>41</v>
       </c>
-      <c r="O47" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>22</v>
       </c>
-      <c r="O48" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>42</v>
       </c>
-      <c r="O49" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>43</v>
       </c>
-      <c r="O50" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>44</v>
       </c>
-      <c r="O51" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>45</v>
       </c>
-      <c r="O52" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>22</v>
       </c>
-      <c r="O53" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>46</v>
       </c>
-      <c r="O54" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>47</v>
       </c>
-      <c r="O55" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>48</v>
       </c>
-      <c r="O56" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>49</v>
       </c>
-      <c r="O57" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>22</v>
       </c>
-      <c r="O58" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>50</v>
       </c>
-      <c r="O59" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>22</v>
       </c>
-      <c r="O60" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>51</v>
       </c>
-      <c r="O61" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>52</v>
       </c>
-      <c r="O62" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>53</v>
       </c>
-      <c r="O63" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>54</v>
       </c>
-      <c r="O64" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>55</v>
       </c>
-      <c r="O65" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
       </c>
-      <c r="O66" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>56</v>
       </c>
-      <c r="O67" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>57</v>
       </c>
-      <c r="O68" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
       </c>
-      <c r="O69" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>58</v>
       </c>
-      <c r="O70" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>22</v>
       </c>
-      <c r="O71" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>22</v>
       </c>
-      <c r="O72" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>59</v>
       </c>
-      <c r="O73" s="6" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C73" s="5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>60</v>
       </c>
-      <c r="O74" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>61</v>
       </c>
-      <c r="O75" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>62</v>
       </c>
-      <c r="O76" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>63</v>
       </c>
-      <c r="O77" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>64</v>
       </c>
-      <c r="O78" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>65</v>
       </c>
-      <c r="O79" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>66</v>
       </c>
-      <c r="O80" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>67</v>
       </c>
-      <c r="O81" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>68</v>
       </c>
-      <c r="O82" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>69</v>
       </c>
-      <c r="O83" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>70</v>
       </c>
-      <c r="O84" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>71</v>
       </c>
-      <c r="O85" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>72</v>
       </c>
-      <c r="O86" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>73</v>
       </c>
-      <c r="O87" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>74</v>
       </c>
-      <c r="O88" s="6" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C88" s="5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>75</v>
       </c>
-      <c r="O89" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>22</v>
       </c>
-      <c r="O90" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>76</v>
       </c>
-      <c r="O91" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C91" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>77</v>
       </c>
-      <c r="O92" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
       </c>
-      <c r="O93" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>78</v>
       </c>
-      <c r="O94" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>79</v>
       </c>
-      <c r="O95" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
       </c>
-      <c r="O96" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>80</v>
       </c>
-      <c r="O97" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>81</v>
       </c>
-      <c r="O98" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>82</v>
       </c>
-      <c r="O99" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>83</v>
       </c>
-      <c r="O100" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>84</v>
       </c>
-      <c r="O101" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>85</v>
       </c>
-      <c r="O102" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>86</v>
       </c>
-      <c r="O103" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>87</v>
       </c>
-      <c r="O104" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>88</v>
       </c>
-      <c r="O105" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>89</v>
       </c>
-      <c r="O106" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>90</v>
       </c>
-      <c r="O107" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>91</v>
       </c>
-      <c r="O108" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>92</v>
       </c>
-      <c r="O109" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>93</v>
       </c>
-      <c r="O110" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>94</v>
       </c>
-      <c r="O111" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>95</v>
       </c>
-      <c r="O112" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>96</v>
       </c>
-      <c r="O113" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>97</v>
       </c>
-      <c r="O114" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>98</v>
       </c>
-      <c r="O115" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>99</v>
       </c>
-      <c r="O116" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>100</v>
       </c>
-      <c r="O117" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>101</v>
       </c>
-      <c r="O118" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>22</v>
       </c>
-      <c r="O119" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>102</v>
       </c>
-      <c r="O120" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>103</v>
       </c>
-      <c r="O121" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>22</v>
       </c>
-      <c r="O122" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>104</v>
       </c>
-      <c r="O123" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>22</v>
       </c>
-      <c r="O124" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>105</v>
       </c>
-      <c r="O125" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>106</v>
       </c>
-      <c r="O126" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>107</v>
       </c>
-      <c r="O127" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
         <v>108</v>
       </c>
-      <c r="O128" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
         <v>109</v>
       </c>
-      <c r="O129" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
         <v>110</v>
       </c>
-      <c r="O130" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
         <v>111</v>
       </c>
-      <c r="O131" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
         <v>112</v>
       </c>
-      <c r="O132" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
         <v>113</v>
       </c>
-      <c r="O133" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
         <v>114</v>
       </c>
-      <c r="O134" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
         <v>115</v>
       </c>
-      <c r="O135" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
         <v>116</v>
       </c>
-      <c r="O136" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
         <v>117</v>
       </c>
-      <c r="O137" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
         <v>118</v>
       </c>
-      <c r="O138" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
         <v>6</v>
       </c>
-      <c r="O139" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
         <v>22</v>
       </c>
-      <c r="O140" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
         <v>119</v>
       </c>
-      <c r="O141" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
         <v>120</v>
       </c>
-      <c r="O142" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
         <v>121</v>
       </c>
-      <c r="O143" s="6" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C143" s="5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
         <v>122</v>
       </c>
-      <c r="O144" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
         <v>123</v>
       </c>
-      <c r="O145" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
         <v>124</v>
       </c>
-      <c r="O146" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C146" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
         <v>6</v>
       </c>
-      <c r="O147" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C147" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
         <v>125</v>
       </c>
-      <c r="O148" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C148" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
         <v>126</v>
       </c>
-      <c r="O149" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C149" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
         <v>127</v>
       </c>
-      <c r="O150" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
         <v>128</v>
       </c>
-      <c r="O151" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
         <v>129</v>
       </c>
-      <c r="O152" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C152" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
         <v>130</v>
       </c>
-      <c r="O153" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
       </c>
-      <c r="O154" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C154" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
         <v>131</v>
       </c>
-      <c r="O155" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C155" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
         <v>132</v>
       </c>
-      <c r="O156" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C156" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
         <v>133</v>
       </c>
-      <c r="O157" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
         <v>134</v>
       </c>
-      <c r="O158" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C158" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
         <v>135</v>
       </c>
-      <c r="O159" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C159" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
       </c>
-      <c r="O160" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C160" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
         <v>136</v>
       </c>
-      <c r="O161" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C161" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
         <v>137</v>
       </c>
-      <c r="O162" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C162" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
         <v>22</v>
       </c>
-      <c r="O163" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C163" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
         <v>138</v>
       </c>
-      <c r="O164" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C164" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
         <v>139</v>
       </c>
-      <c r="O165" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C165" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
         <v>140</v>
       </c>
-      <c r="O166" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C166" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
         <v>141</v>
       </c>
-      <c r="O167" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C167" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
         <v>142</v>
       </c>
-      <c r="O168" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C168" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
         <v>143</v>
       </c>
-      <c r="O169" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C169" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
         <v>144</v>
       </c>
-      <c r="O170" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C170" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" t="s">
         <v>145</v>
       </c>
-      <c r="O171" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C171" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
         <v>22</v>
       </c>
-      <c r="O172" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C172" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
         <v>6</v>
       </c>
-      <c r="O173" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C173" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
         <v>146</v>
       </c>
-      <c r="O174" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C174" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
         <v>147</v>
       </c>
-      <c r="O175" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C175" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
         <v>148</v>
       </c>
-      <c r="O176" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C176" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
         <v>149</v>
       </c>
-      <c r="O177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C177" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" t="s">
         <v>150</v>
       </c>
-      <c r="O178" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C178" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" t="s">
         <v>151</v>
       </c>
-      <c r="O179" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C179" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" t="s">
         <v>152</v>
       </c>
-      <c r="O180" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C180" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" t="s">
         <v>22</v>
       </c>
-      <c r="O181" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C181" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
         <v>153</v>
       </c>
-      <c r="O182" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C182" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
         <v>154</v>
       </c>
-      <c r="O183" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C183" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
         <v>6</v>
       </c>
-      <c r="O184" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C184" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
         <v>155</v>
       </c>
-      <c r="O185" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C185" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
         <v>156</v>
       </c>
-      <c r="O186" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C186" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
         <v>157</v>
       </c>
-      <c r="O187" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C187" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
         <v>158</v>
       </c>
-      <c r="O188" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C188" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
         <v>159</v>
       </c>
-      <c r="O189" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C189" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
         <v>22</v>
       </c>
-      <c r="O190" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C190" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
         <v>160</v>
       </c>
-      <c r="O191" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C191" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
         <v>22</v>
       </c>
-      <c r="O192" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C192" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
         <v>161</v>
       </c>
-      <c r="O193" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C193" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
         <v>162</v>
       </c>
-      <c r="O194" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C194" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
         <v>163</v>
       </c>
-      <c r="O195" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C195" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
         <v>164</v>
       </c>
-      <c r="O196" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C196" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
         <v>165</v>
       </c>
-      <c r="O197" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C197" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
         <v>166</v>
       </c>
-      <c r="O198" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C198" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
         <v>167</v>
       </c>
-      <c r="O199" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C199" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
         <v>168</v>
       </c>
-      <c r="O200" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C200" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
         <v>169</v>
       </c>
-      <c r="O201" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C201" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
         <v>170</v>
       </c>
-      <c r="O202" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C202" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
         <v>171</v>
       </c>
-      <c r="O203" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C203" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" t="s">
         <v>172</v>
       </c>
-      <c r="O204" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C204" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" t="s">
         <v>173</v>
       </c>
-      <c r="O205" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C205" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" t="s">
         <v>174</v>
       </c>
-      <c r="O206" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C206" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" t="s">
         <v>175</v>
       </c>
-      <c r="O207" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C207" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" t="s">
         <v>176</v>
       </c>
-      <c r="O208" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C208" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" t="s">
         <v>177</v>
       </c>
-      <c r="O209" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C209" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" t="s">
         <v>178</v>
       </c>
-      <c r="O210" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C210" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" t="s">
         <v>179</v>
       </c>
-      <c r="O211" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C211" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" t="s">
         <v>180</v>
       </c>
-      <c r="O212" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C212" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" t="s">
         <v>181</v>
       </c>
-      <c r="O213" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C213" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" t="s">
         <v>22</v>
       </c>
-      <c r="O214" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C214" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" t="s">
         <v>182</v>
       </c>
-      <c r="O215" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C215" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216" t="s">
         <v>183</v>
       </c>
-      <c r="O216" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C216" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217" t="s">
         <v>184</v>
       </c>
-      <c r="O217" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C217" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218" t="s">
         <v>185</v>
       </c>
-      <c r="O218" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C218" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
       <c r="B219" t="s">
         <v>186</v>
       </c>
-      <c r="O219" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C219" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220" t="s">
         <v>187</v>
       </c>
-      <c r="O220" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C220" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221" t="s">
         <v>188</v>
       </c>
-      <c r="O221" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C221" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
       <c r="B222" t="s">
         <v>189</v>
       </c>
-      <c r="O222" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C222" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223" t="s">
         <v>6</v>
       </c>
-      <c r="O223" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C223" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224" t="s">
         <v>190</v>
       </c>
-      <c r="O224" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C224" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
       <c r="B225" t="s">
         <v>191</v>
       </c>
-      <c r="O225" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C225" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
       <c r="B226" t="s">
         <v>22</v>
       </c>
-      <c r="O226" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C226" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
       <c r="B227" t="s">
         <v>192</v>
       </c>
-      <c r="O227" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C227" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
       <c r="B228" t="s">
         <v>22</v>
       </c>
-      <c r="O228" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C228" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
       <c r="B229" t="s">
         <v>193</v>
       </c>
-      <c r="O229" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C229" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230" t="s">
         <v>194</v>
       </c>
-      <c r="O230" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C230" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
       <c r="B231" t="s">
         <v>195</v>
       </c>
-      <c r="O231" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C231" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
       <c r="B232" t="s">
         <v>6</v>
       </c>
-      <c r="O232" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C232" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
       <c r="B233" t="s">
         <v>98</v>
       </c>
-      <c r="O233" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C233" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
       <c r="B234" t="s">
         <v>196</v>
       </c>
-      <c r="O234" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C234" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
       <c r="B235" t="s">
         <v>197</v>
       </c>
-      <c r="O235" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C235" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
       <c r="B236" t="s">
         <v>198</v>
       </c>
-      <c r="O236" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C236" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
       <c r="B237" t="s">
         <v>199</v>
       </c>
-      <c r="O237" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C237" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
       <c r="B238" t="s">
         <v>200</v>
       </c>
-      <c r="O238" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C238" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
       <c r="B239" t="s">
         <v>201</v>
       </c>
-      <c r="O239" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C239" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
       <c r="B240" t="s">
         <v>202</v>
       </c>
-      <c r="O240" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C240" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
       <c r="B241" t="s">
         <v>203</v>
       </c>
-      <c r="O241" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C241" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
       <c r="B242" t="s">
         <v>22</v>
       </c>
-      <c r="O242" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C242" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
       <c r="B243" t="s">
         <v>204</v>
       </c>
-      <c r="O243" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C243" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
       <c r="B244" t="s">
         <v>205</v>
       </c>
-      <c r="O244" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C244" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
       <c r="B245" t="s">
         <v>206</v>
       </c>
-      <c r="O245" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C245" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
       <c r="B246" t="s">
         <v>207</v>
       </c>
-      <c r="O246" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C246" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
       <c r="B247" t="s">
         <v>208</v>
       </c>
-      <c r="O247" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C247" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
       <c r="B248" t="s">
         <v>209</v>
       </c>
-      <c r="O248" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C248" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
       <c r="B249" t="s">
         <v>210</v>
       </c>
-      <c r="O249" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C249" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
       <c r="B250" t="s">
         <v>211</v>
       </c>
-      <c r="O250" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C250" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
       <c r="B251" t="s">
         <v>212</v>
       </c>
-      <c r="O251" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C251" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
       <c r="B252" t="s">
         <v>213</v>
       </c>
-      <c r="O252" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C252" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
       <c r="B253" t="s">
         <v>214</v>
       </c>
-      <c r="O253" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C253" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
       <c r="B254" t="s">
         <v>215</v>
       </c>
-      <c r="O254" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C254" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
       <c r="B255" t="s">
         <v>6</v>
       </c>
-      <c r="O255" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C255" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
       <c r="B256" t="s">
         <v>216</v>
       </c>
-      <c r="O256" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C256" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
       <c r="B257" t="s">
         <v>22</v>
       </c>
-      <c r="O257" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C257" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
       <c r="B258" t="s">
         <v>217</v>
       </c>
-      <c r="O258" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C258" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
       <c r="B259" t="s">
         <v>218</v>
       </c>
-      <c r="O259" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C259" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
       <c r="B260" t="s">
         <v>219</v>
       </c>
-      <c r="O260" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C260" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
       <c r="B261" t="s">
         <v>220</v>
       </c>
-      <c r="O261" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C261" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
       <c r="B262" t="s">
         <v>221</v>
       </c>
-      <c r="O262" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C262" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
       <c r="B263" t="s">
         <v>6</v>
       </c>
-      <c r="O263" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C263" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
       <c r="B264" t="s">
         <v>222</v>
       </c>
-      <c r="O264" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C264" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
       <c r="B265" t="s">
         <v>223</v>
       </c>
-      <c r="O265" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C265" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
       <c r="B266" t="s">
         <v>224</v>
       </c>
-      <c r="O266" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C266" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
       <c r="B267" t="s">
         <v>6</v>
       </c>
-      <c r="O267" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C267" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
       <c r="B268" t="s">
         <v>6</v>
       </c>
-      <c r="O268" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C268" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
       <c r="B269" t="s">
         <v>22</v>
       </c>
-      <c r="O269" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C269" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
       <c r="B270" t="s">
         <v>225</v>
       </c>
-      <c r="O270" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C270" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
       <c r="B271" t="s">
         <v>226</v>
       </c>
-      <c r="O271" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C271" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
       <c r="B272" t="s">
         <v>227</v>
       </c>
-      <c r="O272" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C272" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
       <c r="B273" t="s">
         <v>228</v>
       </c>
-      <c r="O273" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C273" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
       <c r="B274" t="s">
         <v>229</v>
       </c>
-      <c r="O274" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C274" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
       <c r="B275" t="s">
         <v>230</v>
       </c>
-      <c r="O275" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C275" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
       <c r="B276" t="s">
         <v>231</v>
       </c>
-      <c r="O276" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C276" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
       <c r="B277" t="s">
         <v>232</v>
       </c>
-      <c r="O277" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C277" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
       <c r="B278" t="s">
         <v>233</v>
       </c>
-      <c r="O278" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C278" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
       <c r="B279" t="s">
         <v>22</v>
       </c>
-      <c r="O279" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C279" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
       <c r="B280" t="s">
         <v>234</v>
       </c>
-      <c r="O280" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C280" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
       <c r="B281" t="s">
         <v>235</v>
       </c>
-      <c r="O281" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C281" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
       <c r="B282" t="s">
         <v>236</v>
       </c>
-      <c r="O282" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C282" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
       <c r="B283" t="s">
         <v>237</v>
       </c>
-      <c r="O283" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C283" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
       <c r="B284" t="s">
         <v>238</v>
       </c>
-      <c r="O284" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C284" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
       <c r="B285" t="s">
         <v>239</v>
       </c>
-      <c r="O285" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C285" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
       <c r="B286" t="s">
         <v>240</v>
       </c>
-      <c r="O286" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C286" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
       <c r="B287" t="s">
         <v>241</v>
       </c>
-      <c r="O287" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C287" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
       <c r="B288" t="s">
         <v>242</v>
       </c>
-      <c r="O288" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C288" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
       <c r="B289" t="s">
         <v>243</v>
       </c>
-      <c r="O289" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C289" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
       <c r="B290" t="s">
         <v>244</v>
       </c>
-      <c r="O290" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C290" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
       <c r="B291" t="s">
         <v>245</v>
       </c>
-      <c r="O291" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C291" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
       <c r="B292" t="s">
         <v>246</v>
       </c>
-      <c r="O292" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C292" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
       <c r="B293" t="s">
         <v>247</v>
       </c>
-      <c r="O293" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C293" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
       <c r="B294" t="s">
         <v>248</v>
       </c>
-      <c r="O294" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C294" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
       <c r="B295" t="s">
         <v>249</v>
       </c>
-      <c r="O295" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C295" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
       <c r="B296" t="s">
         <v>250</v>
       </c>
-      <c r="O296" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C296" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
       <c r="B297" t="s">
         <v>251</v>
       </c>
-      <c r="O297" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C297" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
       <c r="B298" t="s">
         <v>252</v>
       </c>
-      <c r="O298" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C298" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
       <c r="B299" t="s">
         <v>253</v>
       </c>
-      <c r="O299" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C299" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
       <c r="B300" t="s">
         <v>22</v>
       </c>
-      <c r="O300" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C300" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
       <c r="B301" t="s">
         <v>254</v>
       </c>
-      <c r="O301" t="s">
+      <c r="C301" t="s">
         <v>413</v>
       </c>
     </row>
@@ -5078,2222 +5088,2226 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O201"/>
+  <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="138.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>255</v>
       </c>
       <c r="B1" t="s">
-        <v>415</v>
-      </c>
-      <c r="O1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="C1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>256</v>
       </c>
-      <c r="O2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>257</v>
       </c>
-      <c r="O3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>258</v>
       </c>
-      <c r="O4" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>259</v>
       </c>
-      <c r="O5" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="O6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>260</v>
       </c>
-      <c r="O7" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>261</v>
       </c>
-      <c r="O8" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>262</v>
       </c>
-      <c r="O9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="O10" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>263</v>
       </c>
-      <c r="O11" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>264</v>
       </c>
-      <c r="O12" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>265</v>
       </c>
-      <c r="O13" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>266</v>
       </c>
-      <c r="O14" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>267</v>
       </c>
-      <c r="O15" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="O16" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>268</v>
       </c>
-      <c r="O17" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="O18" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>269</v>
       </c>
-      <c r="O19" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>270</v>
       </c>
-      <c r="O20" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>271</v>
       </c>
-      <c r="O21" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>272</v>
       </c>
-      <c r="O22" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>416</v>
-      </c>
-      <c r="O23" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+      <c r="C23" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>273</v>
       </c>
-      <c r="O24" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>274</v>
       </c>
-      <c r="O25" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>275</v>
       </c>
-      <c r="O26" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
-      <c r="O27" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>276</v>
       </c>
-      <c r="O28" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>277</v>
       </c>
-      <c r="O29" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>278</v>
       </c>
-      <c r="O30" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="O31" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>279</v>
       </c>
-      <c r="O32" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>22</v>
       </c>
-      <c r="O33" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>280</v>
       </c>
-      <c r="O34" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
       </c>
-      <c r="O35" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>281</v>
       </c>
-      <c r="O36" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>282</v>
       </c>
-      <c r="O37" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
       </c>
-      <c r="O38" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>283</v>
       </c>
-      <c r="O39" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>284</v>
       </c>
-      <c r="O40" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>285</v>
       </c>
-      <c r="O41" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>22</v>
       </c>
-      <c r="O42" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>286</v>
       </c>
-      <c r="O43" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
       </c>
-      <c r="O44" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
       </c>
-      <c r="O45" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
       </c>
-      <c r="O46" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
       </c>
-      <c r="O47" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>287</v>
       </c>
-      <c r="O48" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>288</v>
       </c>
-      <c r="O49" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>289</v>
       </c>
-      <c r="O50" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>22</v>
       </c>
-      <c r="O51" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>290</v>
       </c>
-      <c r="O52" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>291</v>
       </c>
-      <c r="O53" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>292</v>
       </c>
-      <c r="O54" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>293</v>
       </c>
-      <c r="O55" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>22</v>
       </c>
-      <c r="O56" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>294</v>
       </c>
-      <c r="O57" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>295</v>
       </c>
-      <c r="O58" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>296</v>
       </c>
-      <c r="O59" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>297</v>
       </c>
-      <c r="O60" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>298</v>
       </c>
-      <c r="O61" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
       </c>
-      <c r="O62" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>22</v>
       </c>
-      <c r="O63" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>299</v>
       </c>
-      <c r="O64" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>300</v>
       </c>
-      <c r="O65" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>22</v>
       </c>
-      <c r="O66" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>301</v>
       </c>
-      <c r="O67" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>302</v>
       </c>
-      <c r="O68" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>98</v>
       </c>
-      <c r="O69" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>303</v>
       </c>
-      <c r="O70" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>304</v>
       </c>
-      <c r="O71" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>305</v>
       </c>
-      <c r="O72" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>306</v>
       </c>
-      <c r="O73" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>307</v>
       </c>
-      <c r="O74" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>308</v>
       </c>
-      <c r="O75" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>309</v>
       </c>
-      <c r="O76" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>310</v>
       </c>
-      <c r="O77" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>301</v>
       </c>
-      <c r="O78" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>311</v>
       </c>
-      <c r="O79" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>312</v>
       </c>
-      <c r="O80" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>313</v>
       </c>
-      <c r="O81" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>314</v>
       </c>
-      <c r="O82" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
       </c>
-      <c r="O83" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>315</v>
       </c>
-      <c r="O84" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>316</v>
       </c>
-      <c r="O85" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>6</v>
       </c>
-      <c r="O86" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>6</v>
       </c>
-      <c r="O87" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>317</v>
       </c>
-      <c r="O88" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>318</v>
       </c>
-      <c r="O89" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>319</v>
       </c>
-      <c r="O90" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>320</v>
       </c>
-      <c r="O91" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>321</v>
       </c>
-      <c r="O92" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>322</v>
       </c>
-      <c r="O93" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>22</v>
       </c>
-      <c r="O94" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>323</v>
       </c>
-      <c r="O95" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>324</v>
       </c>
-      <c r="O96" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>325</v>
       </c>
-      <c r="O97" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>326</v>
       </c>
-      <c r="O98" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>327</v>
       </c>
-      <c r="O99" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>328</v>
       </c>
-      <c r="O100" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>329</v>
       </c>
-      <c r="O101" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>330</v>
       </c>
-      <c r="O102" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>331</v>
       </c>
-      <c r="O103" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>332</v>
       </c>
-      <c r="O104" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>333</v>
       </c>
-      <c r="O105" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>334</v>
       </c>
-      <c r="O106" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>335</v>
       </c>
-      <c r="O107" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>336</v>
       </c>
-      <c r="O108" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>337</v>
       </c>
-      <c r="O109" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>338</v>
       </c>
-      <c r="O110" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>339</v>
       </c>
-      <c r="O111" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>340</v>
       </c>
-      <c r="O112" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>341</v>
       </c>
-      <c r="O113" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>342</v>
       </c>
-      <c r="O114" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>343</v>
       </c>
-      <c r="O115" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>344</v>
       </c>
-      <c r="O116" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>345</v>
       </c>
-      <c r="O117" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>346</v>
       </c>
-      <c r="O118" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>347</v>
       </c>
-      <c r="O119" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>348</v>
       </c>
-      <c r="O120" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>349</v>
       </c>
-      <c r="O121" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>350</v>
       </c>
-      <c r="O122" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
       </c>
-      <c r="O123" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>351</v>
       </c>
-      <c r="O124" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>352</v>
       </c>
-      <c r="O125" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>353</v>
       </c>
-      <c r="O126" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>22</v>
       </c>
-      <c r="O127" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
         <v>354</v>
       </c>
-      <c r="O128" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
         <v>355</v>
       </c>
-      <c r="O129" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
         <v>22</v>
       </c>
-      <c r="O130" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
         <v>356</v>
       </c>
-      <c r="O131" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
         <v>22</v>
       </c>
-      <c r="O132" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
         <v>357</v>
       </c>
-      <c r="O133" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
         <v>358</v>
       </c>
-      <c r="O134" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
         <v>359</v>
       </c>
-      <c r="O135" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
         <v>301</v>
       </c>
-      <c r="O136" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
         <v>360</v>
       </c>
-      <c r="O137" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
         <v>6</v>
       </c>
-      <c r="O138" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
         <v>361</v>
       </c>
-      <c r="O139" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
         <v>6</v>
       </c>
-      <c r="O140" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
         <v>362</v>
       </c>
-      <c r="O141" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
         <v>363</v>
       </c>
-      <c r="O142" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
         <v>364</v>
       </c>
-      <c r="O143" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C143" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
         <v>365</v>
       </c>
-      <c r="O144" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
         <v>366</v>
       </c>
-      <c r="O145" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
         <v>367</v>
       </c>
-      <c r="O146" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C146" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
         <v>368</v>
       </c>
-      <c r="O147" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C147" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
         <v>369</v>
       </c>
-      <c r="O148" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C148" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
         <v>370</v>
       </c>
-      <c r="O149" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C149" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
         <v>371</v>
       </c>
-      <c r="O150" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
         <v>372</v>
       </c>
-      <c r="O151" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
         <v>373</v>
       </c>
-      <c r="O152" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C152" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
         <v>374</v>
       </c>
-      <c r="O153" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
         <v>375</v>
       </c>
-      <c r="O154" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C154" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
         <v>376</v>
       </c>
-      <c r="O155" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C155" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
         <v>377</v>
       </c>
-      <c r="O156" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C156" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
         <v>22</v>
       </c>
-      <c r="O157" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
         <v>378</v>
       </c>
-      <c r="O158" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C158" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
       </c>
-      <c r="O159" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C159" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
         <v>379</v>
       </c>
-      <c r="O160" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C160" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
         <v>380</v>
       </c>
-      <c r="O161" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C161" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
         <v>22</v>
       </c>
-      <c r="O162" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C162" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
         <v>22</v>
       </c>
-      <c r="O163" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C163" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
         <v>381</v>
       </c>
-      <c r="O164" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C164" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
         <v>22</v>
       </c>
-      <c r="O165" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C165" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
         <v>382</v>
       </c>
-      <c r="O166" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C166" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
         <v>383</v>
       </c>
-      <c r="O167" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C167" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
         <v>384</v>
       </c>
-      <c r="O168" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C168" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
         <v>22</v>
       </c>
-      <c r="O169" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C169" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
         <v>385</v>
       </c>
-      <c r="O170" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C170" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" t="s">
         <v>386</v>
       </c>
-      <c r="O171" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C171" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
         <v>387</v>
       </c>
-      <c r="O172" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C172" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
         <v>388</v>
       </c>
-      <c r="O173" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C173" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
         <v>389</v>
       </c>
-      <c r="O174" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C174" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
         <v>22</v>
       </c>
-      <c r="O175" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C175" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
         <v>390</v>
       </c>
-      <c r="O176" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C176" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
         <v>391</v>
       </c>
-      <c r="O177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C177" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" t="s">
         <v>392</v>
       </c>
-      <c r="O178" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C178" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" t="s">
         <v>393</v>
       </c>
-      <c r="O179" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C179" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" t="s">
         <v>394</v>
       </c>
-      <c r="O180" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C180" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" t="s">
         <v>395</v>
       </c>
-      <c r="O181" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C181" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
         <v>6</v>
       </c>
-      <c r="O182" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C182" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
         <v>396</v>
       </c>
-      <c r="O183" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C183" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
         <v>397</v>
       </c>
-      <c r="O184" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C184" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
         <v>22</v>
       </c>
-      <c r="O185" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C185" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
         <v>398</v>
       </c>
-      <c r="O186" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C186" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
         <v>399</v>
       </c>
-      <c r="O187" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C187" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
         <v>400</v>
       </c>
-      <c r="O188" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C188" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
         <v>401</v>
       </c>
-      <c r="O189" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C189" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
         <v>402</v>
       </c>
-      <c r="O190" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C190" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
         <v>403</v>
       </c>
-      <c r="O191" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C191" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
         <v>404</v>
       </c>
-      <c r="O192" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C192" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
         <v>405</v>
       </c>
-      <c r="O193" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C193" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
         <v>6</v>
       </c>
-      <c r="O194" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C194" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
         <v>406</v>
       </c>
-      <c r="O195" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C195" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
         <v>407</v>
       </c>
-      <c r="O196" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C196" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
         <v>22</v>
       </c>
-      <c r="O197" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C197" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
         <v>408</v>
       </c>
-      <c r="O198" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C198" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
         <v>409</v>
       </c>
-      <c r="O199" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C199" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
         <v>410</v>
       </c>
-      <c r="O200" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C200" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
         <v>411</v>
       </c>
-      <c r="O201" t="s">
+      <c r="C201" t="s">
         <v>412</v>
       </c>
     </row>

--- a/Bradesco.xlsx
+++ b/Bradesco.xlsx
@@ -5090,8 +5090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Bradesco.xlsx
+++ b/Bradesco.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milen\OneDrive\Documentos\2o SEMESTRE\CDD\Projeto2-CD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duda\Documents\cdd\Projeto2-CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="18" windowWidth="16098" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1355,7 +1355,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1365,6 +1365,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1396,7 +1402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1409,6 +1415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1427,7 +1434,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1750,19 +1757,19 @@
   <dimension ref="A1:L301"/>
   <sheetViews>
     <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="138.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="138.83984375" customWidth="1"/>
+    <col min="3" max="3" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.26171875" customWidth="1"/>
+    <col min="14" max="14" width="12.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1777,7 +1784,7 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1791,7 +1798,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1802,7 +1809,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1813,7 +1820,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1824,7 +1831,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1835,7 +1842,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1846,7 +1853,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1857,7 +1864,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1868,7 +1875,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1879,7 +1886,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1890,7 +1897,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1901,7 +1908,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1912,7 +1919,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1923,7 +1930,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1934,7 +1941,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1945,7 +1952,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1956,7 +1963,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1967,7 +1974,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1978,7 +1985,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1989,7 +1996,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2000,7 +2007,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2011,7 +2018,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2022,7 +2029,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2033,7 +2040,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2044,7 +2051,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2055,7 +2062,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2066,7 +2073,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2077,7 +2084,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2088,7 +2095,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2099,7 +2106,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2110,7 +2117,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2121,7 +2128,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2132,7 +2139,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2143,7 +2150,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2154,7 +2161,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2165,7 +2172,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2176,7 +2183,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2187,7 +2194,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2198,7 +2205,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2209,7 +2216,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2220,7 +2227,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2231,7 +2238,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2242,7 +2249,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2253,7 +2260,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2264,7 +2271,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2275,7 +2282,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2286,7 +2293,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2297,7 +2304,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2308,7 +2315,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2319,7 +2326,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2330,7 +2337,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2341,7 +2348,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2352,7 +2359,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2363,7 +2370,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2374,7 +2381,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2385,7 +2392,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2396,7 +2403,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2407,7 +2414,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2418,7 +2425,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2429,7 +2436,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2440,7 +2447,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2451,7 +2458,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2462,7 +2469,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2473,7 +2480,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2484,7 +2491,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2495,7 +2502,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2506,7 +2513,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2517,7 +2524,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2528,7 +2535,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2539,7 +2546,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2550,7 +2557,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2561,7 +2568,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2572,7 +2579,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2583,7 +2590,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2594,7 +2601,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2605,7 +2612,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2616,7 +2623,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2627,7 +2634,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2638,7 +2645,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2649,7 +2656,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2660,7 +2667,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2671,7 +2678,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2682,7 +2689,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2693,7 +2700,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2704,7 +2711,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2715,7 +2722,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2726,7 +2733,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2737,7 +2744,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2748,7 +2755,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2759,7 +2766,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2770,7 +2777,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2781,7 +2788,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2792,7 +2799,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2803,7 +2810,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2814,7 +2821,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2825,7 +2832,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2836,7 +2843,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2847,7 +2854,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2858,7 +2865,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2869,7 +2876,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2880,7 +2887,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2891,7 +2898,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2902,7 +2909,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2913,7 +2920,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2924,7 +2931,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2935,7 +2942,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2946,7 +2953,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2957,7 +2964,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2968,7 +2975,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2979,7 +2986,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2990,7 +2997,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3001,7 +3008,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3012,7 +3019,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3023,7 +3030,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3034,7 +3041,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3045,7 +3052,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3056,7 +3063,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3067,7 +3074,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3078,7 +3085,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3089,7 +3096,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3100,7 +3107,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3111,7 +3118,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3122,7 +3129,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3133,7 +3140,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3144,7 +3151,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3155,7 +3162,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3166,7 +3173,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3177,7 +3184,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3188,7 +3195,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3199,7 +3206,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3210,7 +3217,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3221,7 +3228,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3232,7 +3239,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3243,7 +3250,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3254,7 +3261,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3265,7 +3272,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3276,7 +3283,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3287,7 +3294,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3298,7 +3305,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3309,7 +3316,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3320,7 +3327,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3331,7 +3338,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3342,7 +3349,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3353,7 +3360,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3364,7 +3371,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3375,7 +3382,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <v>146</v>
       </c>
@@ -3386,7 +3393,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3397,7 +3404,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <v>148</v>
       </c>
@@ -3408,7 +3415,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <v>149</v>
       </c>
@@ -3419,7 +3426,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <v>150</v>
       </c>
@@ -3430,7 +3437,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
         <v>151</v>
       </c>
@@ -3441,7 +3448,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <v>152</v>
       </c>
@@ -3452,7 +3459,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
         <v>153</v>
       </c>
@@ -3463,7 +3470,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
         <v>154</v>
       </c>
@@ -3474,7 +3481,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
         <v>155</v>
       </c>
@@ -3485,7 +3492,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
         <v>156</v>
       </c>
@@ -3496,7 +3503,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
         <v>157</v>
       </c>
@@ -3507,7 +3514,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
         <v>158</v>
       </c>
@@ -3518,7 +3525,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
         <v>159</v>
       </c>
@@ -3529,7 +3536,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
         <v>160</v>
       </c>
@@ -3540,7 +3547,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A162">
         <v>161</v>
       </c>
@@ -3551,7 +3558,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A163">
         <v>162</v>
       </c>
@@ -3562,7 +3569,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
         <v>163</v>
       </c>
@@ -3573,7 +3580,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
         <v>164</v>
       </c>
@@ -3584,7 +3591,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A166">
         <v>165</v>
       </c>
@@ -3595,7 +3602,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A167">
         <v>166</v>
       </c>
@@ -3606,7 +3613,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A168">
         <v>167</v>
       </c>
@@ -3617,7 +3624,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A169">
         <v>168</v>
       </c>
@@ -3628,7 +3635,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A170">
         <v>169</v>
       </c>
@@ -3639,7 +3646,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A171">
         <v>170</v>
       </c>
@@ -3650,7 +3657,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A172">
         <v>171</v>
       </c>
@@ -3661,7 +3668,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A173">
         <v>172</v>
       </c>
@@ -3672,7 +3679,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A174">
         <v>173</v>
       </c>
@@ -3683,7 +3690,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A175">
         <v>174</v>
       </c>
@@ -3694,7 +3701,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A176">
         <v>175</v>
       </c>
@@ -3705,7 +3712,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A177">
         <v>176</v>
       </c>
@@ -3716,7 +3723,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A178">
         <v>177</v>
       </c>
@@ -3727,7 +3734,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A179">
         <v>178</v>
       </c>
@@ -3738,7 +3745,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A180">
         <v>179</v>
       </c>
@@ -3749,7 +3756,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A181">
         <v>180</v>
       </c>
@@ -3760,7 +3767,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A182">
         <v>181</v>
       </c>
@@ -3771,7 +3778,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A183">
         <v>182</v>
       </c>
@@ -3782,7 +3789,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A184">
         <v>183</v>
       </c>
@@ -3793,7 +3800,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A185">
         <v>184</v>
       </c>
@@ -3804,7 +3811,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A186">
         <v>185</v>
       </c>
@@ -3815,7 +3822,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A187">
         <v>186</v>
       </c>
@@ -3826,7 +3833,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A188">
         <v>187</v>
       </c>
@@ -3837,7 +3844,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A189">
         <v>188</v>
       </c>
@@ -3848,7 +3855,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A190">
         <v>189</v>
       </c>
@@ -3859,7 +3866,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A191">
         <v>190</v>
       </c>
@@ -3870,7 +3877,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A192">
         <v>191</v>
       </c>
@@ -3881,7 +3888,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A193">
         <v>192</v>
       </c>
@@ -3892,7 +3899,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A194">
         <v>193</v>
       </c>
@@ -3903,7 +3910,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A195">
         <v>194</v>
       </c>
@@ -3914,7 +3921,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A196">
         <v>195</v>
       </c>
@@ -3925,7 +3932,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A197">
         <v>196</v>
       </c>
@@ -3936,7 +3943,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A198">
         <v>197</v>
       </c>
@@ -3947,7 +3954,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A199">
         <v>198</v>
       </c>
@@ -3958,7 +3965,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A200">
         <v>199</v>
       </c>
@@ -3969,7 +3976,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A201">
         <v>200</v>
       </c>
@@ -3980,7 +3987,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A202">
         <v>201</v>
       </c>
@@ -3991,7 +3998,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A203">
         <v>202</v>
       </c>
@@ -4002,7 +4009,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A204">
         <v>203</v>
       </c>
@@ -4013,7 +4020,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A205">
         <v>204</v>
       </c>
@@ -4024,7 +4031,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A206">
         <v>205</v>
       </c>
@@ -4035,7 +4042,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A207">
         <v>206</v>
       </c>
@@ -4046,7 +4053,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A208">
         <v>207</v>
       </c>
@@ -4057,7 +4064,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A209">
         <v>208</v>
       </c>
@@ -4068,7 +4075,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A210">
         <v>209</v>
       </c>
@@ -4079,7 +4086,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A211">
         <v>210</v>
       </c>
@@ -4090,7 +4097,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A212">
         <v>211</v>
       </c>
@@ -4101,7 +4108,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A213">
         <v>212</v>
       </c>
@@ -4112,7 +4119,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A214">
         <v>213</v>
       </c>
@@ -4123,7 +4130,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A215">
         <v>214</v>
       </c>
@@ -4134,7 +4141,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A216">
         <v>215</v>
       </c>
@@ -4145,7 +4152,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A217">
         <v>216</v>
       </c>
@@ -4156,7 +4163,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A218">
         <v>217</v>
       </c>
@@ -4167,7 +4174,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A219">
         <v>218</v>
       </c>
@@ -4178,7 +4185,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A220">
         <v>219</v>
       </c>
@@ -4189,7 +4196,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A221">
         <v>220</v>
       </c>
@@ -4200,7 +4207,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A222">
         <v>221</v>
       </c>
@@ -4211,7 +4218,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A223">
         <v>222</v>
       </c>
@@ -4222,7 +4229,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A224">
         <v>223</v>
       </c>
@@ -4233,7 +4240,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A225">
         <v>224</v>
       </c>
@@ -4244,7 +4251,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A226">
         <v>225</v>
       </c>
@@ -4255,7 +4262,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A227">
         <v>226</v>
       </c>
@@ -4266,7 +4273,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A228">
         <v>227</v>
       </c>
@@ -4277,7 +4284,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A229">
         <v>228</v>
       </c>
@@ -4288,7 +4295,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A230">
         <v>229</v>
       </c>
@@ -4299,7 +4306,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A231">
         <v>230</v>
       </c>
@@ -4310,7 +4317,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A232">
         <v>231</v>
       </c>
@@ -4321,7 +4328,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A233">
         <v>232</v>
       </c>
@@ -4332,7 +4339,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A234">
         <v>233</v>
       </c>
@@ -4343,7 +4350,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A235">
         <v>234</v>
       </c>
@@ -4354,7 +4361,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A236">
         <v>235</v>
       </c>
@@ -4365,7 +4372,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A237">
         <v>236</v>
       </c>
@@ -4376,7 +4383,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A238">
         <v>237</v>
       </c>
@@ -4387,7 +4394,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A239">
         <v>238</v>
       </c>
@@ -4398,7 +4405,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A240">
         <v>239</v>
       </c>
@@ -4409,7 +4416,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A241">
         <v>240</v>
       </c>
@@ -4420,7 +4427,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A242">
         <v>241</v>
       </c>
@@ -4431,7 +4438,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A243">
         <v>242</v>
       </c>
@@ -4442,7 +4449,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A244">
         <v>243</v>
       </c>
@@ -4453,7 +4460,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A245">
         <v>244</v>
       </c>
@@ -4464,7 +4471,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A246">
         <v>245</v>
       </c>
@@ -4475,7 +4482,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A247">
         <v>246</v>
       </c>
@@ -4486,7 +4493,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A248">
         <v>247</v>
       </c>
@@ -4497,7 +4504,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A249">
         <v>248</v>
       </c>
@@ -4508,7 +4515,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A250">
         <v>249</v>
       </c>
@@ -4519,7 +4526,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A251">
         <v>250</v>
       </c>
@@ -4530,7 +4537,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A252">
         <v>251</v>
       </c>
@@ -4541,7 +4548,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A253">
         <v>252</v>
       </c>
@@ -4552,7 +4559,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A254">
         <v>253</v>
       </c>
@@ -4563,7 +4570,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A255">
         <v>254</v>
       </c>
@@ -4574,7 +4581,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A256">
         <v>255</v>
       </c>
@@ -4585,7 +4592,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A257">
         <v>256</v>
       </c>
@@ -4596,7 +4603,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A258">
         <v>257</v>
       </c>
@@ -4607,7 +4614,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A259">
         <v>258</v>
       </c>
@@ -4618,7 +4625,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A260">
         <v>259</v>
       </c>
@@ -4629,7 +4636,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A261">
         <v>260</v>
       </c>
@@ -4640,7 +4647,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A262">
         <v>261</v>
       </c>
@@ -4651,7 +4658,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A263">
         <v>262</v>
       </c>
@@ -4662,7 +4669,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A264">
         <v>263</v>
       </c>
@@ -4673,7 +4680,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A265">
         <v>264</v>
       </c>
@@ -4684,7 +4691,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A266">
         <v>265</v>
       </c>
@@ -4695,7 +4702,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A267">
         <v>266</v>
       </c>
@@ -4706,7 +4713,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A268">
         <v>267</v>
       </c>
@@ -4717,7 +4724,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A269">
         <v>268</v>
       </c>
@@ -4728,7 +4735,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A270">
         <v>269</v>
       </c>
@@ -4739,7 +4746,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A271">
         <v>270</v>
       </c>
@@ -4750,7 +4757,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A272">
         <v>271</v>
       </c>
@@ -4761,7 +4768,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A273">
         <v>272</v>
       </c>
@@ -4772,7 +4779,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A274">
         <v>273</v>
       </c>
@@ -4783,7 +4790,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A275">
         <v>274</v>
       </c>
@@ -4794,7 +4801,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A276">
         <v>275</v>
       </c>
@@ -4805,7 +4812,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A277">
         <v>276</v>
       </c>
@@ -4816,7 +4823,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A278">
         <v>277</v>
       </c>
@@ -4827,7 +4834,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A279">
         <v>278</v>
       </c>
@@ -4838,7 +4845,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A280">
         <v>279</v>
       </c>
@@ -4849,7 +4856,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A281">
         <v>280</v>
       </c>
@@ -4860,7 +4867,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A282">
         <v>281</v>
       </c>
@@ -4871,7 +4878,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A283">
         <v>282</v>
       </c>
@@ -4882,7 +4889,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A284">
         <v>283</v>
       </c>
@@ -4893,7 +4900,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A285">
         <v>284</v>
       </c>
@@ -4904,7 +4911,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A286">
         <v>285</v>
       </c>
@@ -4915,7 +4922,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A287">
         <v>286</v>
       </c>
@@ -4926,7 +4933,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A288">
         <v>287</v>
       </c>
@@ -4937,7 +4944,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A289">
         <v>288</v>
       </c>
@@ -4948,7 +4955,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A290">
         <v>289</v>
       </c>
@@ -4959,7 +4966,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A291">
         <v>290</v>
       </c>
@@ -4970,7 +4977,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A292">
         <v>291</v>
       </c>
@@ -4981,7 +4988,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A293">
         <v>292</v>
       </c>
@@ -4992,7 +4999,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A294">
         <v>293</v>
       </c>
@@ -5003,7 +5010,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A295">
         <v>294</v>
       </c>
@@ -5014,7 +5021,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A296">
         <v>295</v>
       </c>
@@ -5025,7 +5032,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A297">
         <v>296</v>
       </c>
@@ -5036,7 +5043,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A298">
         <v>297</v>
       </c>
@@ -5047,7 +5054,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A299">
         <v>298</v>
       </c>
@@ -5058,7 +5065,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A300">
         <v>299</v>
       </c>
@@ -5069,7 +5076,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A301">
         <v>300</v>
       </c>
@@ -5090,17 +5097,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="B194" sqref="B194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="138.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="138.26171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>255</v>
       </c>
@@ -5111,7 +5118,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5119,10 +5126,10 @@
         <v>256</v>
       </c>
       <c r="C2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5133,7 +5140,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5144,7 +5151,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5152,10 +5159,10 @@
         <v>259</v>
       </c>
       <c r="C5" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5166,7 +5173,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5177,7 +5184,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5188,7 +5195,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5199,7 +5206,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5210,7 +5217,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5221,7 +5228,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5232,7 +5239,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5243,7 +5250,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5254,7 +5261,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5265,7 +5272,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5276,7 +5283,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5287,7 +5294,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5298,7 +5305,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5309,7 +5316,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5320,7 +5327,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5331,7 +5338,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5342,7 +5349,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5353,7 +5360,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5364,7 +5371,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5375,7 +5382,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5386,7 +5393,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5397,7 +5404,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5408,7 +5415,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5416,10 +5423,10 @@
         <v>277</v>
       </c>
       <c r="C29" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5430,7 +5437,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5441,7 +5448,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5452,7 +5459,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5463,7 +5470,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5474,7 +5481,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5485,7 +5492,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5496,7 +5503,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5507,7 +5514,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5518,7 +5525,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5529,7 +5536,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5537,10 +5544,10 @@
         <v>284</v>
       </c>
       <c r="C40" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5551,7 +5558,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5562,7 +5569,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5573,7 +5580,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5584,7 +5591,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5595,7 +5602,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5606,7 +5613,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5617,7 +5624,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5628,7 +5635,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5639,7 +5646,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5650,7 +5657,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5661,7 +5668,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5672,7 +5679,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5683,7 +5690,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5694,7 +5701,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5702,10 +5709,10 @@
         <v>293</v>
       </c>
       <c r="C55" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5716,7 +5723,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5727,7 +5734,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5738,7 +5745,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5749,7 +5756,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5760,7 +5767,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5771,7 +5778,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5782,7 +5789,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5793,7 +5800,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5804,7 +5811,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5815,7 +5822,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5826,7 +5833,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5834,10 +5841,10 @@
         <v>301</v>
       </c>
       <c r="C67" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5848,7 +5855,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5859,18 +5866,18 @@
         <v>412</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>303</v>
       </c>
-      <c r="C70" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5881,7 +5888,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5892,7 +5899,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5903,7 +5910,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5914,7 +5921,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5925,7 +5932,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5936,7 +5943,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5947,7 +5954,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5955,10 +5962,10 @@
         <v>301</v>
       </c>
       <c r="C78" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5969,7 +5976,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5980,7 +5987,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5991,7 +5998,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6002,7 +6009,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6013,7 +6020,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6024,7 +6031,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6035,7 +6042,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6046,7 +6053,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6057,7 +6064,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6068,7 +6075,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6079,7 +6086,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6090,7 +6097,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6101,7 +6108,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6112,7 +6119,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6123,7 +6130,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6134,7 +6141,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6145,7 +6152,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6156,7 +6163,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6164,10 +6171,10 @@
         <v>325</v>
       </c>
       <c r="C97" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6178,7 +6185,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6189,7 +6196,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6200,7 +6207,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6211,7 +6218,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6222,7 +6229,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6233,7 +6240,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6244,7 +6251,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6255,7 +6262,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6266,7 +6273,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6277,7 +6284,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6288,7 +6295,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6299,7 +6306,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6310,7 +6317,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6321,7 +6328,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>111</v>
       </c>
@@ -6332,7 +6339,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6343,7 +6350,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6354,7 +6361,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6365,7 +6372,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6376,7 +6383,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6384,10 +6391,10 @@
         <v>345</v>
       </c>
       <c r="C117" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6398,7 +6405,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6409,7 +6416,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6420,7 +6427,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6431,7 +6438,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6442,7 +6449,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6453,7 +6460,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6464,7 +6471,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6475,7 +6482,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6486,7 +6493,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6497,7 +6504,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6508,7 +6515,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6519,7 +6526,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6530,7 +6537,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6541,7 +6548,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>131</v>
       </c>
@@ -6552,7 +6559,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>132</v>
       </c>
@@ -6563,7 +6570,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>133</v>
       </c>
@@ -6574,7 +6581,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <v>134</v>
       </c>
@@ -6585,7 +6592,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6596,7 +6603,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>136</v>
       </c>
@@ -6607,7 +6614,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>137</v>
       </c>
@@ -6618,7 +6625,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>138</v>
       </c>
@@ -6629,7 +6636,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>139</v>
       </c>
@@ -6640,7 +6647,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>140</v>
       </c>
@@ -6651,7 +6658,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
         <v>141</v>
       </c>
@@ -6662,18 +6669,18 @@
         <v>412</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
         <v>364</v>
       </c>
-      <c r="C143" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <v>143</v>
       </c>
@@ -6684,7 +6691,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <v>144</v>
       </c>
@@ -6695,7 +6702,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>145</v>
       </c>
@@ -6706,7 +6713,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <v>146</v>
       </c>
@@ -6717,7 +6724,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <v>147</v>
       </c>
@@ -6725,10 +6732,10 @@
         <v>369</v>
       </c>
       <c r="C148" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <v>148</v>
       </c>
@@ -6739,7 +6746,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <v>149</v>
       </c>
@@ -6750,7 +6757,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <v>150</v>
       </c>
@@ -6761,7 +6768,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
         <v>151</v>
       </c>
@@ -6772,7 +6779,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <v>152</v>
       </c>
@@ -6783,7 +6790,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
         <v>153</v>
       </c>
@@ -6794,7 +6801,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
         <v>154</v>
       </c>
@@ -6805,7 +6812,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
         <v>155</v>
       </c>
@@ -6816,7 +6823,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
         <v>156</v>
       </c>
@@ -6827,7 +6834,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
         <v>157</v>
       </c>
@@ -6835,10 +6842,10 @@
         <v>378</v>
       </c>
       <c r="C158" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
         <v>158</v>
       </c>
@@ -6849,7 +6856,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
         <v>159</v>
       </c>
@@ -6860,7 +6867,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
         <v>160</v>
       </c>
@@ -6871,7 +6878,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A162">
         <v>161</v>
       </c>
@@ -6882,7 +6889,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A163">
         <v>162</v>
       </c>
@@ -6893,7 +6900,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
         <v>163</v>
       </c>
@@ -6904,7 +6911,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
         <v>164</v>
       </c>
@@ -6915,7 +6922,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A166">
         <v>165</v>
       </c>
@@ -6926,7 +6933,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A167">
         <v>166</v>
       </c>
@@ -6937,7 +6944,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A168">
         <v>167</v>
       </c>
@@ -6948,7 +6955,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A169">
         <v>168</v>
       </c>
@@ -6959,7 +6966,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A170">
         <v>169</v>
       </c>
@@ -6970,7 +6977,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A171">
         <v>170</v>
       </c>
@@ -6981,7 +6988,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A172">
         <v>171</v>
       </c>
@@ -6992,7 +6999,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A173">
         <v>172</v>
       </c>
@@ -7003,7 +7010,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A174">
         <v>173</v>
       </c>
@@ -7014,7 +7021,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A175">
         <v>174</v>
       </c>
@@ -7025,7 +7032,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A176">
         <v>175</v>
       </c>
@@ -7036,7 +7043,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A177">
         <v>176</v>
       </c>
@@ -7047,7 +7054,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A178">
         <v>177</v>
       </c>
@@ -7058,7 +7065,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A179">
         <v>178</v>
       </c>
@@ -7069,7 +7076,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A180">
         <v>179</v>
       </c>
@@ -7080,7 +7087,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A181">
         <v>180</v>
       </c>
@@ -7091,7 +7098,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A182">
         <v>181</v>
       </c>
@@ -7102,7 +7109,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A183">
         <v>182</v>
       </c>
@@ -7113,7 +7120,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A184">
         <v>183</v>
       </c>
@@ -7124,7 +7131,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A185">
         <v>184</v>
       </c>
@@ -7135,7 +7142,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A186">
         <v>185</v>
       </c>
@@ -7146,7 +7153,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A187">
         <v>186</v>
       </c>
@@ -7157,7 +7164,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A188">
         <v>187</v>
       </c>
@@ -7168,7 +7175,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A189">
         <v>188</v>
       </c>
@@ -7179,7 +7186,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A190">
         <v>189</v>
       </c>
@@ -7190,7 +7197,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A191">
         <v>190</v>
       </c>
@@ -7201,7 +7208,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A192">
         <v>191</v>
       </c>
@@ -7212,7 +7219,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A193">
         <v>192</v>
       </c>
@@ -7223,7 +7230,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A194">
         <v>193</v>
       </c>
@@ -7234,7 +7241,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A195">
         <v>194</v>
       </c>
@@ -7245,7 +7252,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A196">
         <v>195</v>
       </c>
@@ -7256,7 +7263,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A197">
         <v>196</v>
       </c>
@@ -7267,7 +7274,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A198">
         <v>197</v>
       </c>
@@ -7278,7 +7285,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A199">
         <v>198</v>
       </c>
@@ -7289,7 +7296,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A200">
         <v>199</v>
       </c>
@@ -7300,7 +7307,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A201">
         <v>200</v>
       </c>
@@ -7313,5 +7320,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>